--- a/databaseAdmin/assessment1/newNormalisedData.xlsx
+++ b/databaseAdmin/assessment1/newNormalisedData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benor\OneDrive\Desktop\homework\databaseAdmin\assessment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/bgo0026_arastudent_ac_nz/Documents/Desktop/homework/databaseAdmin/assessment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F321A31-A896-4D5B-A6BA-41DB5E230D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3F321A31-A896-4D5B-A6BA-41DB5E230D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028E19B0-1499-4A03-BA03-28C2FFB6A9E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paitent" sheetId="1" r:id="rId1"/>
@@ -4245,30 +4245,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E43AF367-44E2-434A-ABF5-A362CC04F415}"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
@@ -4350,6 +4326,30 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4364,7 +4364,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0D5A2CC-9F06-4BAE-90CB-B85A2DD1FBC8}" name="Table1" displayName="Table1" ref="A1:D500" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0D5A2CC-9F06-4BAE-90CB-B85A2DD1FBC8}" name="Table1" displayName="Table1" ref="A1:D500" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D500" xr:uid="{D0D5A2CC-9F06-4BAE-90CB-B85A2DD1FBC8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D500">
     <sortCondition ref="A1:A500"/>
@@ -4372,15 +4372,15 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D0C7A5D0-1D18-44B6-819A-9EBEED78931E}" name="NHI (PK)"/>
     <tableColumn id="2" xr3:uid="{5C8C3590-49F1-460E-A93E-1D83DDA5D7AC}" name="firstName"/>
-    <tableColumn id="3" xr3:uid="{E412F2B6-5FD9-4096-9725-9E0E4A119328}" name="lastName" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C0B93BAC-FCD3-45DA-A7BF-4B213DD9D1E2}" name="DOB" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E412F2B6-5FD9-4096-9725-9E0E4A119328}" name="lastName" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C0B93BAC-FCD3-45DA-A7BF-4B213DD9D1E2}" name="DOB" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0499B803-118A-4D9E-81F0-385D8611F99A}" name="Table38" displayName="Table38" ref="A1:A6" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0499B803-118A-4D9E-81F0-385D8611F99A}" name="Table38" displayName="Table38" ref="A1:A6" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:A6" xr:uid="{0499B803-118A-4D9E-81F0-385D8611F99A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F6E6275-8FDE-41A6-8E91-80952EE1434F}" name="Department (PK)"/>
@@ -4390,7 +4390,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BD1F832D-B2D4-458D-BCD2-F4AFD4E4C1A6}" name="Table27" displayName="Table27" ref="A1:D16" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BD1F832D-B2D4-458D-BCD2-F4AFD4E4C1A6}" name="Table27" displayName="Table27" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:D16" xr:uid="{BD1F832D-B2D4-458D-BCD2-F4AFD4E4C1A6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{493CADC2-C439-4F41-BE81-EC7F4523F531}" name="SurgeonID (PK)"/>
@@ -4403,7 +4403,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5FB760D7-F350-42BD-BE79-CE197117D43A}" name="Table59" displayName="Table59" ref="A1:C11" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5FB760D7-F350-42BD-BE79-CE197117D43A}" name="Table59" displayName="Table59" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:C11" xr:uid="{5FB760D7-F350-42BD-BE79-CE197117D43A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DC9228EA-4342-496D-A5D6-6DF4E1C9A237}" name="ReferrerID"/>
@@ -4415,13 +4415,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{01B51F74-5F01-4A98-B7B7-DE99DA10F206}" name="Table410" displayName="Table410" ref="A1:H500" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{01B51F74-5F01-4A98-B7B7-DE99DA10F206}" name="Table410" displayName="Table410" ref="A1:H500" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:H500" xr:uid="{01B51F74-5F01-4A98-B7B7-DE99DA10F206}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6C3A7D17-81DD-4FA3-AF0F-87048A6941C3}" name="ReferralID (PK)"/>
-    <tableColumn id="2" xr3:uid="{69BC9D51-A83C-42FB-BD0E-457B3CC02088}" name="Referral Date" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F884FABF-32BA-4946-8D54-126726E1EE13}" name="Added to Waitlist Date" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{41D13005-76D1-428A-8721-79C67D2A29AD}" name="FSA Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{69BC9D51-A83C-42FB-BD0E-457B3CC02088}" name="Referral Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F884FABF-32BA-4946-8D54-126726E1EE13}" name="Added to Waitlist Date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{41D13005-76D1-428A-8721-79C67D2A29AD}" name="FSA Date" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{13C939C5-B91B-486E-85ED-CC0B1E0ABA3A}" name="Health Target Eligible"/>
     <tableColumn id="6" xr3:uid="{622598BD-0785-4CA1-BF50-2052A8FFB744}" name="ReferrerID"/>
     <tableColumn id="7" xr3:uid="{94CF68BC-0820-4FDE-9DFA-A53672EC0D67}" name="NHI (FK)"/>
@@ -4694,10 +4694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L501"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,7 +4708,7 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
@@ -4721,9 +4721,8 @@
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>31658</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>17575</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>32642</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>30055</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>310</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>36226</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>33728</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>29649</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>20794</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>17064</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>21491</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>466</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>18387</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>28403</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>463</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>34655</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>40486</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>492</v>
       </c>
@@ -11721,7 +11720,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A6" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
